--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D622C61-008E-4B14-A169-5963B6275410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C27F6-1485-4C8F-9C52-685900714520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,50 @@
   </si>
   <si>
     <t>getRewardValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet28</t>
+  </si>
+  <si>
+    <t>pet29</t>
+  </si>
+  <si>
+    <t>pet30</t>
+  </si>
+  <si>
+    <t>pet31</t>
+  </si>
+  <si>
+    <t>Sahyungsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -800,7 +844,7 @@
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,8 +926,11 @@
       <c r="AA1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -965,8 +1012,11 @@
       <c r="AA2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1048,8 +1098,11 @@
       <c r="AA3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1131,8 +1184,11 @@
       <c r="AA4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1214,8 +1270,11 @@
       <c r="AA5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1297,8 +1356,11 @@
       <c r="AA6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1380,8 +1442,11 @@
       <c r="AA7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1463,8 +1528,11 @@
       <c r="AA8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1546,8 +1614,11 @@
       <c r="AA9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1629,8 +1700,11 @@
       <c r="AA10" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1712,8 +1786,11 @@
       <c r="AA11" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1795,8 +1872,11 @@
       <c r="AA12" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1878,8 +1958,11 @@
       <c r="AA13" s="1">
         <v>20000000</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1961,8 +2044,11 @@
       <c r="AA14">
         <v>100000</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2044,8 +2130,11 @@
       <c r="AA15">
         <v>100000</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2127,8 +2216,11 @@
       <c r="AA16">
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2210,8 +2302,11 @@
       <c r="AA17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2293,8 +2388,11 @@
       <c r="AA18">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2376,8 +2474,11 @@
       <c r="AA19">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2459,8 +2560,11 @@
       <c r="AA20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2542,8 +2646,11 @@
       <c r="AA21">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2625,8 +2732,11 @@
       <c r="AA22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2708,8 +2818,11 @@
       <c r="AA23">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2791,8 +2904,11 @@
       <c r="AA24">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2874,8 +2990,11 @@
       <c r="AA25">
         <v>2000</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2957,8 +3076,11 @@
       <c r="AA26">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3040,8 +3162,11 @@
       <c r="AA27">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3123,8 +3248,11 @@
       <c r="AA28">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3205,6 +3333,353 @@
       </c>
       <c r="AA29">
         <v>2000</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2">
+        <v>22000</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>18</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2000</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30">
+        <v>-1</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X30">
+        <v>9008</v>
+      </c>
+      <c r="Y30">
+        <v>3000</v>
+      </c>
+      <c r="Z30">
+        <v>9008</v>
+      </c>
+      <c r="AA30">
+        <v>3000</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2">
+        <v>24000</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>18</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>2500</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>92</v>
+      </c>
+      <c r="T31">
+        <v>-1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X31">
+        <v>9008</v>
+      </c>
+      <c r="Y31">
+        <v>3000</v>
+      </c>
+      <c r="Z31">
+        <v>9008</v>
+      </c>
+      <c r="AA31">
+        <v>3000</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2">
+        <v>26000</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>18</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>92</v>
+      </c>
+      <c r="T32">
+        <v>-1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X32">
+        <v>9008</v>
+      </c>
+      <c r="Y32">
+        <v>3000</v>
+      </c>
+      <c r="Z32">
+        <v>9008</v>
+      </c>
+      <c r="AA32">
+        <v>3000</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2400</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>9</v>
+      </c>
+      <c r="K33" s="2">
+        <v>28000</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>18</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>3500</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>92</v>
+      </c>
+      <c r="T33">
+        <v>-1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X33">
+        <v>9008</v>
+      </c>
+      <c r="Y33">
+        <v>3000</v>
+      </c>
+      <c r="Z33">
+        <v>9008</v>
+      </c>
+      <c r="AA33">
+        <v>3000</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C27F6-1485-4C8F-9C52-685900714520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C64E1-377F-4FB8-9A2C-E954D5249247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,35 @@
   </si>
   <si>
     <t>도철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet32</t>
+  </si>
+  <si>
+    <t>pet33</t>
+  </si>
+  <si>
+    <t>pet34</t>
+  </si>
+  <si>
+    <t>pet35</t>
+  </si>
+  <si>
+    <t>비전0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전1</t>
+  </si>
+  <si>
+    <t>비전2</t>
+  </si>
+  <si>
+    <t>비전3</t>
+  </si>
+  <si>
+    <t>Vision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA30" sqref="AA30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3679,6 +3708,350 @@
         <v>3000</v>
       </c>
       <c r="AB33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2600</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>9</v>
+      </c>
+      <c r="K34" s="2">
+        <v>30000</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>18</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>4000</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>108</v>
+      </c>
+      <c r="T34">
+        <v>-1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X34">
+        <v>9008</v>
+      </c>
+      <c r="Y34">
+        <v>3000</v>
+      </c>
+      <c r="Z34">
+        <v>9008</v>
+      </c>
+      <c r="AA34">
+        <v>3000</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2800</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2">
+        <v>32000</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>18</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>4500</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" t="s">
+        <v>108</v>
+      </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X35">
+        <v>9008</v>
+      </c>
+      <c r="Y35">
+        <v>3000</v>
+      </c>
+      <c r="Z35">
+        <v>9008</v>
+      </c>
+      <c r="AA35">
+        <v>3000</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2">
+        <v>34000</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>18</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>108</v>
+      </c>
+      <c r="T36">
+        <v>-1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X36">
+        <v>9008</v>
+      </c>
+      <c r="Y36">
+        <v>3000</v>
+      </c>
+      <c r="Z36">
+        <v>9008</v>
+      </c>
+      <c r="AA36">
+        <v>3000</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3200</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2">
+        <v>36000</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>18</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>5500</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" t="s">
+        <v>108</v>
+      </c>
+      <c r="T37">
+        <v>-1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X37">
+        <v>9008</v>
+      </c>
+      <c r="Y37">
+        <v>3000</v>
+      </c>
+      <c r="Z37">
+        <v>9008</v>
+      </c>
+      <c r="AA37">
+        <v>3000</v>
+      </c>
+      <c r="AB37" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64C64E1-377F-4FB8-9A2C-E954D5249247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E6F6DF-5A7C-4DED-A7E3-0329625F85DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -432,20 +432,23 @@
     <t>pet35</t>
   </si>
   <si>
-    <t>비전0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비전1</t>
-  </si>
-  <si>
-    <t>비전2</t>
-  </si>
-  <si>
-    <t>비전3</t>
-  </si>
-  <si>
     <t>Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마룡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3719,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3767,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T34">
         <v>-1</v>
@@ -3785,13 +3788,13 @@
         <v>9008</v>
       </c>
       <c r="Y34">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Z34">
         <v>9008</v>
       </c>
       <c r="AA34">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="AB34" t="s">
         <v>94</v>
@@ -3805,7 +3808,7 @@
         <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3853,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T35">
         <v>-1</v>
@@ -3871,13 +3874,13 @@
         <v>9008</v>
       </c>
       <c r="Y35">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Z35">
         <v>9008</v>
       </c>
       <c r="AA35">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="AB35" t="s">
         <v>94</v>
@@ -3891,7 +3894,7 @@
         <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3939,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T36">
         <v>-1</v>
@@ -3957,13 +3960,13 @@
         <v>9008</v>
       </c>
       <c r="Y36">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Z36">
         <v>9008</v>
       </c>
       <c r="AA36">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="AB36" t="s">
         <v>94</v>
@@ -3977,7 +3980,7 @@
         <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4025,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="T37">
         <v>-1</v>
@@ -4043,13 +4046,13 @@
         <v>9008</v>
       </c>
       <c r="Y37">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Z37">
         <v>9008</v>
       </c>
       <c r="AA37">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="AB37" t="s">
         <v>94</v>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E6F6DF-5A7C-4DED-A7E3-0329625F85DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1D9A7A-3B52-4362-B0DA-1A77CC55F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,34 @@
   </si>
   <si>
     <t>마룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet36</t>
+  </si>
+  <si>
+    <t>pet37</t>
+  </si>
+  <si>
+    <t>pet38</t>
+  </si>
+  <si>
+    <t>pet39</t>
+  </si>
+  <si>
+    <t>불여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅여우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4055,6 +4083,350 @@
         <v>5000</v>
       </c>
       <c r="AB37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3400</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>38000</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>18</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>6000</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38">
+        <v>-1</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X38">
+        <v>9008</v>
+      </c>
+      <c r="Y38">
+        <v>7000</v>
+      </c>
+      <c r="Z38">
+        <v>9008</v>
+      </c>
+      <c r="AA38">
+        <v>7000</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>10</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3600</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2">
+        <v>40000</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>18</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>6500</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X39">
+        <v>9008</v>
+      </c>
+      <c r="Y39">
+        <v>7000</v>
+      </c>
+      <c r="Z39">
+        <v>9008</v>
+      </c>
+      <c r="AA39">
+        <v>7000</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3800</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>9</v>
+      </c>
+      <c r="K40" s="2">
+        <v>42000</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>18</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>7000</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40">
+        <v>-1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X40">
+        <v>9008</v>
+      </c>
+      <c r="Y40">
+        <v>7000</v>
+      </c>
+      <c r="Z40">
+        <v>9008</v>
+      </c>
+      <c r="AA40">
+        <v>7000</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>44000</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>18</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>7500</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X41">
+        <v>9008</v>
+      </c>
+      <c r="Y41">
+        <v>7000</v>
+      </c>
+      <c r="Z41">
+        <v>9008</v>
+      </c>
+      <c r="AA41">
+        <v>7000</v>
+      </c>
+      <c r="AB41" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1D9A7A-3B52-4362-B0DA-1A77CC55F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF91BDD-7CE2-435D-8C55-D93450E51381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,34 @@
   </si>
   <si>
     <t>땅여우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet40</t>
+  </si>
+  <si>
+    <t>pet41</t>
+  </si>
+  <si>
+    <t>pet42</t>
+  </si>
+  <si>
+    <t>pet43</t>
+  </si>
+  <si>
+    <t>흑산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백산군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4427,6 +4455,350 @@
         <v>7000</v>
       </c>
       <c r="AB41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>4200</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>9</v>
+      </c>
+      <c r="K42" s="2">
+        <v>46000</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>18</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>8000</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42">
+        <v>-1</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X42">
+        <v>9008</v>
+      </c>
+      <c r="Y42">
+        <v>9000</v>
+      </c>
+      <c r="Z42">
+        <v>9008</v>
+      </c>
+      <c r="AA42">
+        <v>9000</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4400</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9</v>
+      </c>
+      <c r="K43" s="2">
+        <v>48000</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>18</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>8500</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43">
+        <v>-1</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X43">
+        <v>9008</v>
+      </c>
+      <c r="Y43">
+        <v>9000</v>
+      </c>
+      <c r="Z43">
+        <v>9008</v>
+      </c>
+      <c r="AA43">
+        <v>9000</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4600</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9</v>
+      </c>
+      <c r="K44" s="2">
+        <v>50000</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>18</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>9000</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44">
+        <v>-1</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X44">
+        <v>9008</v>
+      </c>
+      <c r="Y44">
+        <v>9000</v>
+      </c>
+      <c r="Z44">
+        <v>9008</v>
+      </c>
+      <c r="AA44">
+        <v>9000</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4800</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>9</v>
+      </c>
+      <c r="K45" s="2">
+        <v>52000</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>18</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>9500</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45">
+        <v>-1</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X45">
+        <v>9008</v>
+      </c>
+      <c r="Y45">
+        <v>9000</v>
+      </c>
+      <c r="Z45">
+        <v>9008</v>
+      </c>
+      <c r="AA45">
+        <v>9000</v>
+      </c>
+      <c r="AB45" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Assets/06.Table/PetTable.xlsx
+++ b/Assets/06.Table/PetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF91BDD-7CE2-435D-8C55-D93450E51381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B727C58-0C5B-4174-B8E7-BE483BBE01FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="195">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,356 @@
   </si>
   <si>
     <t>백산군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계 컨텐츠
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSpecialDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnClickButtonDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서
+구매가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기주작
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기청룡
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기현무
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아기백호
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린현무
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린백호
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린주작
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린청룡
+각성시 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 별자리
+컨텐츠에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차 지배
+LV : 2000 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸 여의주
+LV : 30 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수 컨텐츠
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전 컨텐츠
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전 컨텐츠
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전 컨텐츠
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수호신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨텐츠
+에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>획득</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥이 부족합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 구매 가능합니다.
+(외형&amp;환수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환수를 각성시켜 획득 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차 지배 LV : 2000에 획득 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸 여의주 LV : 30에 획득 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수 컨텐츠 도철에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수 컨텐츠 도올에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수 컨텐츠 혼돈에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사흉수 컨텐츠 궁기에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전 컨텐츠 풍룡에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전 컨텐츠 화룡에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전 컨텐츠 뇌룡에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사룡전 컨텐츠 마룡에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전 컨텐츠 불여우에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전 컨텐츠 물여우에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전 컨텐츠 바람여우에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우전 컨텐츠 땅여우에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전 컨텐츠 흑산군에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전 컨텐츠 황산군에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전 컨텐츠 적산군에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산군전 컨텐츠 백산군에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무가 필요합니다.
+사신수 별자리 컨텐츠에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호가 필요합니다.
+사신수 별자리 컨텐츠에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작이 필요합니다.
+사신수 별자리 컨텐츠에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡이 필요합니다.
+사신수 별자리 컨텐츠에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천세계 - 천상계 - 천계 보물창고 - 신선개에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천세계 - 천상계 - 천계 보물창고 - 신선고양이에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천세계 - 천상계 - 천계 보물창고 - 천둥오리에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천세계 - 천상계 - 천계 보물창고 - 근두운에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 보스도전 - 수호신 - 아기해태에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 보스도전 - 수호신 - 기린에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 보스도전 - 수호신 - 달토끼에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 보스도전 - 수호신 - 삼목구에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 보스도전 - 수호신 - 천마에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥 - 보스도전 - 수호신 - 삼족오에서 획득가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pet44</t>
+  </si>
+  <si>
+    <t>pet45</t>
+  </si>
+  <si>
+    <t>pet46</t>
+  </si>
+  <si>
+    <t>pet47</t>
+  </si>
+  <si>
+    <t>녹천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전 컨텐츠
+에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전 컨텐츠 녹천구에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전 컨텐츠 황천구에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전 컨텐츠 적천구에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천구전 컨텐츠 백천구에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +893,35 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -583,7 +962,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +971,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -909,14 +1297,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AB45"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
     <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
@@ -925,14 +1314,19 @@
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="2" customWidth="1"/>
     <col min="13" max="15" width="15.5" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9" style="2"/>
+    <col min="16" max="17" width="9" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="11.125" customWidth="1"/>
+    <col min="23" max="23" width="17.875" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="10" customWidth="1"/>
+    <col min="26" max="28" width="9" customWidth="1"/>
+    <col min="29" max="29" width="21.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,8 +1411,14 @@
       <c r="AB1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1103,8 +1503,14 @@
       <c r="AB2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1189,8 +1595,14 @@
       <c r="AB3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1275,8 +1687,14 @@
       <c r="AB4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1361,8 +1779,14 @@
       <c r="AB5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1447,8 +1871,14 @@
       <c r="AB6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1533,8 +1963,14 @@
       <c r="AB7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1619,8 +2055,14 @@
       <c r="AB8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1705,8 +2147,14 @@
       <c r="AB9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1791,8 +2239,14 @@
       <c r="AB10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1877,8 +2331,14 @@
       <c r="AB11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1963,8 +2423,14 @@
       <c r="AB12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2049,8 +2515,14 @@
       <c r="AB13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2135,8 +2607,14 @@
       <c r="AB14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2221,8 +2699,14 @@
       <c r="AB15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2307,8 +2791,14 @@
       <c r="AB16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2393,8 +2883,14 @@
       <c r="AB17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2479,8 +2975,14 @@
       <c r="AB18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2565,8 +3067,14 @@
       <c r="AB19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2651,8 +3159,14 @@
       <c r="AB20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2737,8 +3251,14 @@
       <c r="AB21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2823,8 +3343,14 @@
       <c r="AB22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2909,8 +3435,14 @@
       <c r="AB23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2995,8 +3527,14 @@
       <c r="AB24" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3081,8 +3619,14 @@
       <c r="AB25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3167,8 +3711,14 @@
       <c r="AB26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3253,8 +3803,14 @@
       <c r="AB27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3339,8 +3895,14 @@
       <c r="AB28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3425,8 +3987,14 @@
       <c r="AB29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD29" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3511,8 +4079,14 @@
       <c r="AB30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3597,8 +4171,14 @@
       <c r="AB31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3683,8 +4263,14 @@
       <c r="AB32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3769,8 +4355,14 @@
       <c r="AB33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC33" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3855,8 +4447,14 @@
       <c r="AB34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3941,8 +4539,14 @@
       <c r="AB35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4027,8 +4631,14 @@
       <c r="AB36" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4113,8 +4723,14 @@
       <c r="AB37" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD37" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4199,8 +4815,14 @@
       <c r="AB38" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4285,8 +4907,14 @@
       <c r="AB39" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC39" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4371,8 +4999,14 @@
       <c r="AB40" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4457,8 +5091,14 @@
       <c r="AB41" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4543,8 +5183,14 @@
       <c r="AB42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4629,8 +5275,14 @@
       <c r="AB43" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4715,8 +5367,14 @@
       <c r="AB44" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4800,6 +5458,380 @@
       </c>
       <c r="AB45" t="s">
         <v>94</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>9</v>
+      </c>
+      <c r="K46" s="2">
+        <v>54000</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>18</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46">
+        <v>-1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X46">
+        <v>9008</v>
+      </c>
+      <c r="Y46">
+        <v>11000</v>
+      </c>
+      <c r="Z46">
+        <v>9008</v>
+      </c>
+      <c r="AA46">
+        <v>11000</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47" s="1">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5200</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>9</v>
+      </c>
+      <c r="K47" s="2">
+        <v>56000</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>18</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>10500</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47">
+        <v>-1</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X47">
+        <v>9008</v>
+      </c>
+      <c r="Y47">
+        <v>11000</v>
+      </c>
+      <c r="Z47">
+        <v>9008</v>
+      </c>
+      <c r="AA47">
+        <v>11000</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48" s="1">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5400</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>9</v>
+      </c>
+      <c r="K48" s="2">
+        <v>58000</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>18</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>11000</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48">
+        <v>-1</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X48">
+        <v>9008</v>
+      </c>
+      <c r="Y48">
+        <v>11000</v>
+      </c>
+      <c r="Z48">
+        <v>9008</v>
+      </c>
+      <c r="AA48">
+        <v>11000</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49" s="1">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5600</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>9</v>
+      </c>
+      <c r="K49" s="2">
+        <v>60000</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>18</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>11500</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49">
+        <v>-1</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>2.8450000000000002</v>
+      </c>
+      <c r="X49">
+        <v>9008</v>
+      </c>
+      <c r="Y49">
+        <v>11000</v>
+      </c>
+      <c r="Z49">
+        <v>9008</v>
+      </c>
+      <c r="AA49">
+        <v>11000</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
